--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>125.4603323333333</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H2">
-        <v>376.380997</v>
+        <v>336.869507</v>
       </c>
       <c r="I2">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J2">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.249867</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N2">
-        <v>6.749601</v>
+        <v>6.947684</v>
       </c>
       <c r="O2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q2">
-        <v>282.2690615257997</v>
+        <v>260.0514315413097</v>
       </c>
       <c r="R2">
-        <v>2540.421553732197</v>
+        <v>2340.462883871788</v>
       </c>
       <c r="S2">
-        <v>0.002313897685951082</v>
+        <v>0.003043031607100266</v>
       </c>
       <c r="T2">
-        <v>0.002313897685951082</v>
+        <v>0.003043031607100266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>125.4603323333333</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H3">
-        <v>376.380997</v>
+        <v>336.869507</v>
       </c>
       <c r="I3">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J3">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q3">
-        <v>405.9850770385919</v>
+        <v>363.3658283533041</v>
       </c>
       <c r="R3">
-        <v>3653.865693347327</v>
+        <v>3270.292455179737</v>
       </c>
       <c r="S3">
-        <v>0.003328058431952545</v>
+        <v>0.004251980825737642</v>
       </c>
       <c r="T3">
-        <v>0.003328058431952545</v>
+        <v>0.004251980825737644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>125.4603323333333</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H4">
-        <v>376.380997</v>
+        <v>336.869507</v>
       </c>
       <c r="I4">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J4">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.69315599999999</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N4">
-        <v>146.079468</v>
+        <v>274.464523</v>
       </c>
       <c r="O4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q4">
-        <v>6109.059534118843</v>
+        <v>10273.19206133335</v>
       </c>
       <c r="R4">
-        <v>54981.53580706959</v>
+        <v>92458.72855200016</v>
       </c>
       <c r="S4">
-        <v>0.05007895177361818</v>
+        <v>0.1202133284295454</v>
       </c>
       <c r="T4">
-        <v>0.05007895177361818</v>
+        <v>0.1202133284295454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>125.4603323333333</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H5">
-        <v>376.380997</v>
+        <v>336.869507</v>
       </c>
       <c r="I5">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J5">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1183283333333333</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N5">
-        <v>0.354985</v>
+        <v>169.175249</v>
       </c>
       <c r="O5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q5">
-        <v>14.84551202444944</v>
+        <v>6332.220303025805</v>
       </c>
       <c r="R5">
-        <v>133.609608220045</v>
+        <v>56989.98272723224</v>
       </c>
       <c r="S5">
-        <v>0.0001216959298849435</v>
+        <v>0.07409744453634588</v>
       </c>
       <c r="T5">
-        <v>0.0001216959298849435</v>
+        <v>0.0740974445363459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>125.4603323333333</v>
+        <v>207.849991</v>
       </c>
       <c r="H6">
-        <v>376.380997</v>
+        <v>623.549973</v>
       </c>
       <c r="I6">
-        <v>0.1427077914074319</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J6">
-        <v>0.1427077914074319</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.46143500000001</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N6">
-        <v>253.384305</v>
+        <v>6.947684</v>
       </c>
       <c r="O6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q6">
-        <v>10596.55970445023</v>
+        <v>481.3586856236146</v>
       </c>
       <c r="R6">
-        <v>95369.03734005209</v>
+        <v>4332.228170612532</v>
       </c>
       <c r="S6">
-        <v>0.08686518758602518</v>
+        <v>0.005632692294840203</v>
       </c>
       <c r="T6">
-        <v>0.08686518758602518</v>
+        <v>0.005632692294840203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,43 +853,43 @@
         <v>207.849991</v>
       </c>
       <c r="H7">
-        <v>623.5499730000001</v>
+        <v>623.549973</v>
       </c>
       <c r="I7">
-        <v>0.2364238369850373</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J7">
-        <v>0.2364238369850374</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.249867</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N7">
-        <v>6.749601</v>
+        <v>9.707891</v>
       </c>
       <c r="O7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q7">
-        <v>467.6348357011971</v>
+        <v>672.5950189929937</v>
       </c>
       <c r="R7">
-        <v>4208.713521310774</v>
+        <v>6053.355170936943</v>
       </c>
       <c r="S7">
-        <v>0.003833431685180322</v>
+        <v>0.007870473503810557</v>
       </c>
       <c r="T7">
-        <v>0.003833431685180323</v>
+        <v>0.007870473503810557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,13 +915,13 @@
         <v>207.849991</v>
       </c>
       <c r="H8">
-        <v>623.5499730000001</v>
+        <v>623.549973</v>
       </c>
       <c r="I8">
-        <v>0.2364238369850373</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J8">
-        <v>0.2364238369850374</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.235963666666667</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N8">
-        <v>9.707891</v>
+        <v>274.464523</v>
       </c>
       <c r="O8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q8">
-        <v>672.5950189929938</v>
+        <v>19015.81621178977</v>
       </c>
       <c r="R8">
-        <v>6053.355170936944</v>
+        <v>171142.3459061079</v>
       </c>
       <c r="S8">
-        <v>0.005513590648643806</v>
+        <v>0.2225164823139756</v>
       </c>
       <c r="T8">
-        <v>0.005513590648643807</v>
+        <v>0.2225164823139756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>207.849991</v>
       </c>
       <c r="H9">
-        <v>623.5499730000001</v>
+        <v>623.549973</v>
       </c>
       <c r="I9">
-        <v>0.2364238369850373</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J9">
-        <v>0.2364238369850374</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.69315599999999</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N9">
-        <v>146.079468</v>
+        <v>169.175249</v>
       </c>
       <c r="O9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q9">
-        <v>10120.8720363616</v>
+        <v>11721.02466069092</v>
       </c>
       <c r="R9">
-        <v>91087.84832725438</v>
+        <v>105489.2219462183</v>
       </c>
       <c r="S9">
-        <v>0.08296574289139237</v>
+        <v>0.1371553630706251</v>
       </c>
       <c r="T9">
-        <v>0.08296574289139239</v>
+        <v>0.1371553630706251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>207.849991</v>
+        <v>69.44798033333335</v>
       </c>
       <c r="H10">
-        <v>623.5499730000001</v>
+        <v>208.343941</v>
       </c>
       <c r="I10">
-        <v>0.2364238369850373</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="J10">
-        <v>0.2364238369850374</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1183283333333333</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N10">
-        <v>0.354985</v>
+        <v>6.947684</v>
       </c>
       <c r="O10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q10">
-        <v>24.59454301837834</v>
+        <v>160.8342072647382</v>
       </c>
       <c r="R10">
-        <v>221.3508871654051</v>
+        <v>1447.507865382644</v>
       </c>
       <c r="S10">
-        <v>0.0002016135097117202</v>
+        <v>0.001882026079644048</v>
       </c>
       <c r="T10">
-        <v>0.0002016135097117203</v>
+        <v>0.001882026079644048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>207.849991</v>
+        <v>69.44798033333335</v>
       </c>
       <c r="H11">
-        <v>623.5499730000001</v>
+        <v>208.343941</v>
       </c>
       <c r="I11">
-        <v>0.2364238369850373</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="J11">
-        <v>0.2364238369850374</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.46143500000001</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N11">
-        <v>253.384305</v>
+        <v>9.707891</v>
       </c>
       <c r="O11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q11">
-        <v>17555.30850459709</v>
+        <v>224.7311410820479</v>
       </c>
       <c r="R11">
-        <v>157997.7765413738</v>
+        <v>2022.580269738431</v>
       </c>
       <c r="S11">
-        <v>0.1439094582501091</v>
+        <v>0.002629725825230643</v>
       </c>
       <c r="T11">
-        <v>0.1439094582501091</v>
+        <v>0.002629725825230643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>240.299296</v>
+        <v>69.44798033333335</v>
       </c>
       <c r="H12">
-        <v>720.897888</v>
+        <v>208.343941</v>
       </c>
       <c r="I12">
-        <v>0.2733340584321854</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="J12">
-        <v>0.2733340584321855</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.249867</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N12">
-        <v>6.749601</v>
+        <v>274.464523</v>
       </c>
       <c r="O12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q12">
-        <v>540.6414561936321</v>
+        <v>6353.668931833906</v>
       </c>
       <c r="R12">
-        <v>4865.773105742688</v>
+        <v>57183.02038650515</v>
       </c>
       <c r="S12">
-        <v>0.004431902694732014</v>
+        <v>0.07434842894741091</v>
       </c>
       <c r="T12">
-        <v>0.004431902694732014</v>
+        <v>0.07434842894741091</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>240.299296</v>
+        <v>69.44798033333335</v>
       </c>
       <c r="H13">
-        <v>720.897888</v>
+        <v>208.343941</v>
       </c>
       <c r="I13">
-        <v>0.2733340584321854</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="J13">
-        <v>0.2733340584321855</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.235963666666667</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N13">
-        <v>9.707891</v>
+        <v>169.175249</v>
       </c>
       <c r="O13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q13">
-        <v>777.5997909815786</v>
+        <v>3916.293121812924</v>
       </c>
       <c r="R13">
-        <v>6998.398118834208</v>
+        <v>35246.63809631632</v>
       </c>
       <c r="S13">
-        <v>0.006374366171135844</v>
+        <v>0.04582710305308584</v>
       </c>
       <c r="T13">
-        <v>0.006374366171135845</v>
+        <v>0.04582710305308584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>240.299296</v>
+        <v>105.8415793333333</v>
       </c>
       <c r="H14">
-        <v>720.897888</v>
+        <v>317.524738</v>
       </c>
       <c r="I14">
-        <v>0.2733340584321854</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="J14">
-        <v>0.2733340584321855</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.69315599999999</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N14">
-        <v>146.079468</v>
+        <v>6.947684</v>
       </c>
       <c r="O14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q14">
-        <v>11700.93110681817</v>
+        <v>245.1179490896436</v>
       </c>
       <c r="R14">
-        <v>105308.3799613636</v>
+        <v>2206.061541806792</v>
       </c>
       <c r="S14">
-        <v>0.09591826063114232</v>
+        <v>0.002868285177768349</v>
       </c>
       <c r="T14">
-        <v>0.09591826063114234</v>
+        <v>0.002868285177768349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,61 +1346,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>240.299296</v>
+        <v>105.8415793333333</v>
       </c>
       <c r="H15">
-        <v>720.897888</v>
+        <v>317.524738</v>
       </c>
       <c r="I15">
-        <v>0.2733340584321854</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="J15">
-        <v>0.2733340584321855</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1183283333333333</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N15">
-        <v>0.354985</v>
+        <v>9.707891</v>
       </c>
       <c r="O15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q15">
-        <v>28.43421519685333</v>
+        <v>342.4995051452843</v>
       </c>
       <c r="R15">
-        <v>255.90793677168</v>
+        <v>3082.495546307558</v>
       </c>
       <c r="S15">
-        <v>0.0002330891823219541</v>
+        <v>0.004007810352729162</v>
       </c>
       <c r="T15">
-        <v>0.0002330891823219542</v>
+        <v>0.004007810352729162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>240.299296</v>
+        <v>105.8415793333333</v>
       </c>
       <c r="H16">
-        <v>720.897888</v>
+        <v>317.524738</v>
       </c>
       <c r="I16">
-        <v>0.2733340584321854</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="J16">
-        <v>0.2733340584321855</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.46143500000001</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N16">
-        <v>253.384305</v>
+        <v>274.464523</v>
       </c>
       <c r="O16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q16">
-        <v>20296.02336964976</v>
+        <v>9683.252861763331</v>
       </c>
       <c r="R16">
-        <v>182664.2103268479</v>
+        <v>87149.27575586997</v>
       </c>
       <c r="S16">
-        <v>0.1663764397528533</v>
+        <v>0.1133100646408444</v>
       </c>
       <c r="T16">
-        <v>0.1663764397528534</v>
+        <v>0.1133100646408444</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>115.486529</v>
+        <v>105.8415793333333</v>
       </c>
       <c r="H17">
-        <v>346.459587</v>
+        <v>317.524738</v>
       </c>
       <c r="I17">
-        <v>0.1313628553693985</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="J17">
-        <v>0.1313628553693985</v>
+        <v>0.1900285506934165</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2.249867</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N17">
-        <v>6.749601</v>
+        <v>169.175249</v>
       </c>
       <c r="O17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q17">
-        <v>259.829330541643</v>
+        <v>5968.591846089975</v>
       </c>
       <c r="R17">
-        <v>2338.463974874787</v>
+        <v>53717.32661480977</v>
       </c>
       <c r="S17">
-        <v>0.002129948225401155</v>
+        <v>0.06984239052207465</v>
       </c>
       <c r="T17">
-        <v>0.002129948225401155</v>
+        <v>0.06984239052207465</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>115.486529</v>
+        <v>61.54786233333334</v>
       </c>
       <c r="H18">
-        <v>346.459587</v>
+        <v>184.643587</v>
       </c>
       <c r="I18">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="J18">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.235963666666667</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N18">
-        <v>9.707891</v>
+        <v>6.947684</v>
       </c>
       <c r="O18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q18">
-        <v>373.7102118334464</v>
+        <v>142.5383661225009</v>
       </c>
       <c r="R18">
-        <v>3363.391906501017</v>
+        <v>1282.845295102508</v>
       </c>
       <c r="S18">
-        <v>0.003063485561270636</v>
+        <v>0.001667934495743385</v>
       </c>
       <c r="T18">
-        <v>0.003063485561270636</v>
+        <v>0.001667934495743386</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>115.486529</v>
+        <v>61.54786233333334</v>
       </c>
       <c r="H19">
-        <v>346.459587</v>
+        <v>184.643587</v>
       </c>
       <c r="I19">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="J19">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.69315599999999</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N19">
-        <v>146.079468</v>
+        <v>9.707891</v>
       </c>
       <c r="O19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q19">
-        <v>5623.403572495524</v>
+        <v>199.1666462716686</v>
       </c>
       <c r="R19">
-        <v>50610.63215245972</v>
+        <v>1792.499816445017</v>
       </c>
       <c r="S19">
-        <v>0.0460977920967691</v>
+        <v>0.002330578978522447</v>
       </c>
       <c r="T19">
-        <v>0.0460977920967691</v>
+        <v>0.002330578978522447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,51 +1656,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>115.486529</v>
+        <v>61.54786233333334</v>
       </c>
       <c r="H20">
-        <v>346.459587</v>
+        <v>184.643587</v>
       </c>
       <c r="I20">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="J20">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1183283333333333</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N20">
-        <v>0.354985</v>
+        <v>274.464523</v>
       </c>
       <c r="O20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q20">
-        <v>13.66532849902167</v>
+        <v>5630.901558996001</v>
       </c>
       <c r="R20">
-        <v>122.987956491195</v>
+        <v>50678.114030964</v>
       </c>
       <c r="S20">
-        <v>0.0001120213877522581</v>
+        <v>0.06589085597005474</v>
       </c>
       <c r="T20">
-        <v>0.0001120213877522581</v>
+        <v>0.06589085597005474</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>115.486529</v>
+        <v>61.54786233333334</v>
       </c>
       <c r="H21">
-        <v>346.459587</v>
+        <v>184.643587</v>
       </c>
       <c r="I21">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="J21">
-        <v>0.1313628553693985</v>
+        <v>0.1105033688192312</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.46143500000001</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N21">
-        <v>253.384305</v>
+        <v>169.175249</v>
       </c>
       <c r="O21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q21">
-        <v>9754.157962509116</v>
+        <v>3470.791645219796</v>
       </c>
       <c r="R21">
-        <v>87787.42166258204</v>
+        <v>31237.12480697817</v>
       </c>
       <c r="S21">
-        <v>0.07995960809820538</v>
+        <v>0.04061399937491065</v>
       </c>
       <c r="T21">
-        <v>0.07995960809820538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>190.0452853333333</v>
-      </c>
-      <c r="H22">
-        <v>570.135856</v>
-      </c>
-      <c r="I22">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="J22">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>2.249867</v>
-      </c>
-      <c r="N22">
-        <v>6.749601</v>
-      </c>
-      <c r="O22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="P22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="Q22">
-        <v>427.5766159770507</v>
-      </c>
-      <c r="R22">
-        <v>3848.189543793456</v>
-      </c>
-      <c r="S22">
-        <v>0.003505054847060037</v>
-      </c>
-      <c r="T22">
-        <v>0.003505054847060037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>190.0452853333333</v>
-      </c>
-      <c r="H23">
-        <v>570.135856</v>
-      </c>
-      <c r="I23">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="J23">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.235963666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.707891</v>
-      </c>
-      <c r="O23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="P23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="Q23">
-        <v>614.9796383599662</v>
-      </c>
-      <c r="R23">
-        <v>5534.816745239696</v>
-      </c>
-      <c r="S23">
-        <v>0.005041289167208625</v>
-      </c>
-      <c r="T23">
-        <v>0.005041289167208626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>190.0452853333333</v>
-      </c>
-      <c r="H24">
-        <v>570.135856</v>
-      </c>
-      <c r="I24">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="J24">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>48.69315599999999</v>
-      </c>
-      <c r="N24">
-        <v>146.079468</v>
-      </c>
-      <c r="O24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="P24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="Q24">
-        <v>9253.904725800512</v>
-      </c>
-      <c r="R24">
-        <v>83285.1425322046</v>
-      </c>
-      <c r="S24">
-        <v>0.07585878741118941</v>
-      </c>
-      <c r="T24">
-        <v>0.07585878741118943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>190.0452853333333</v>
-      </c>
-      <c r="H25">
-        <v>570.135856</v>
-      </c>
-      <c r="I25">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="J25">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1183283333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.354985</v>
-      </c>
-      <c r="O25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="P25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="Q25">
-        <v>22.48774187135111</v>
-      </c>
-      <c r="R25">
-        <v>202.38967684216</v>
-      </c>
-      <c r="S25">
-        <v>0.0001843430292966365</v>
-      </c>
-      <c r="T25">
-        <v>0.0001843430292966365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>190.0452853333333</v>
-      </c>
-      <c r="H26">
-        <v>570.135856</v>
-      </c>
-      <c r="I26">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="J26">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.46143500000001</v>
-      </c>
-      <c r="N26">
-        <v>253.384305</v>
-      </c>
-      <c r="O26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="P26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="Q26">
-        <v>16051.49751423779</v>
-      </c>
-      <c r="R26">
-        <v>144463.4776281401</v>
-      </c>
-      <c r="S26">
-        <v>0.131581983351192</v>
-      </c>
-      <c r="T26">
-        <v>0.131581983351192</v>
+        <v>0.04061399937491065</v>
       </c>
     </row>
   </sheetData>
